--- a/Excel Report Automation/Workbooks/Economic Report.xlsx
+++ b/Excel Report Automation/Workbooks/Economic Report.xlsx
@@ -4,11 +4,12 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Yield Curve" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Real Estate" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Real Estate Nominal" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Real Estate Adjusted" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,7 +19,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="0.0%" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -42,7 +43,7 @@
       <sz val="16"/>
     </font>
   </fonts>
-  <fills count="80">
+  <fills count="133">
     <fill>
       <patternFill/>
     </fill>
@@ -515,6 +516,324 @@
       <patternFill patternType="solid">
         <fgColor rgb="00b5ffb5"/>
         <bgColor rgb="00b5ffb5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00dbffdb"/>
+        <bgColor rgb="00dbffdb"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00c6ffc6"/>
+        <bgColor rgb="00c6ffc6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00a1ffa1"/>
+        <bgColor rgb="00a1ffa1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00d2ffd2"/>
+        <bgColor rgb="00d2ffd2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00b1ffb1"/>
+        <bgColor rgb="00b1ffb1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00cfffcf"/>
+        <bgColor rgb="00cfffcf"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00b2ffb2"/>
+        <bgColor rgb="00b2ffb2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ccffcc"/>
+        <bgColor rgb="00ccffcc"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00fbfffb"/>
+        <bgColor rgb="00fbfffb"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="009dff9d"/>
+        <bgColor rgb="009dff9d"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00e4ffe4"/>
+        <bgColor rgb="00e4ffe4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00d6ffd6"/>
+        <bgColor rgb="00d6ffd6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="003bff3b"/>
+        <bgColor rgb="003bff3b"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00bcffbc"/>
+        <bgColor rgb="00bcffbc"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00a3ffa3"/>
+        <bgColor rgb="00a3ffa3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0055ff55"/>
+        <bgColor rgb="0055ff55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00e8ffe8"/>
+        <bgColor rgb="00e8ffe8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0064ff64"/>
+        <bgColor rgb="0064ff64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00d1ffd1"/>
+        <bgColor rgb="00d1ffd1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00fffdfd"/>
+        <bgColor rgb="00fffdfd"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ebffeb"/>
+        <bgColor rgb="00ebffeb"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00cbffcb"/>
+        <bgColor rgb="00cbffcb"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ffd6d6"/>
+        <bgColor rgb="00ffd6d6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ffc3c3"/>
+        <bgColor rgb="00ffc3c3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ff9898"/>
+        <bgColor rgb="00ff9898"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ff9b9b"/>
+        <bgColor rgb="00ff9b9b"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ff9d9d"/>
+        <bgColor rgb="00ff9d9d"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ff0000"/>
+        <bgColor rgb="00ff0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ff2020"/>
+        <bgColor rgb="00ff2020"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00f2fff2"/>
+        <bgColor rgb="00f2fff2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ff2626"/>
+        <bgColor rgb="00ff2626"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ff4747"/>
+        <bgColor rgb="00ff4747"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ffaaaa"/>
+        <bgColor rgb="00ffaaaa"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ff9a9a"/>
+        <bgColor rgb="00ff9a9a"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ff1a1a"/>
+        <bgColor rgb="00ff1a1a"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ff6b6b"/>
+        <bgColor rgb="00ff6b6b"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00fffbfb"/>
+        <bgColor rgb="00fffbfb"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00f5fff5"/>
+        <bgColor rgb="00f5fff5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ffeded"/>
+        <bgColor rgb="00ffeded"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00f3fff3"/>
+        <bgColor rgb="00f3fff3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00d5ffd5"/>
+        <bgColor rgb="00d5ffd5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00a7ffa7"/>
+        <bgColor rgb="00a7ffa7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ecffec"/>
+        <bgColor rgb="00ecffec"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00b0ffb0"/>
+        <bgColor rgb="00b0ffb0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00afffaf"/>
+        <bgColor rgb="00afffaf"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00c3ffc3"/>
+        <bgColor rgb="00c3ffc3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00acffac"/>
+        <bgColor rgb="00acffac"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00f1fff1"/>
+        <bgColor rgb="00f1fff1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0079ff79"/>
+        <bgColor rgb="0079ff79"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00a5ffa5"/>
+        <bgColor rgb="00a5ffa5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00c0ffc0"/>
+        <bgColor rgb="00c0ffc0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00e5ffe5"/>
+        <bgColor rgb="00e5ffe5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00e0ffe0"/>
+        <bgColor rgb="00e0ffe0"/>
       </patternFill>
     </fill>
   </fills>
@@ -531,114 +850,234 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="143">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="12" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="13" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="5" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="14" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="6" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="15" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="7" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="16" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="8" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="17" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="9" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="18" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="19" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="10" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="20" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="11" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="21" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" textRotation="90" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf borderId="0" fillId="22" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="23" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="24" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="25" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="26" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="27" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="28" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="29" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="30" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="31" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="32" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="33" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="34" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="35" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="36" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="37" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="38" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="39" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="40" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="41" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="42" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="43" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="44" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="45" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="46" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="47" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="48" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="49" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="50" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="51" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="52" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="53" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="54" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="55" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="56" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="57" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="58" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="59" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="60" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="61" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="62" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="10" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="63" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="64" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="17" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="65" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="66" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="67" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="68" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="69" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="70" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="71" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="72" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="73" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="74" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="75" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="5" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="76" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="77" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="78" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="79" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="22" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="23" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="24" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="25" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="26" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="27" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="28" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="29" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="30" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="31" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="32" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="33" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="34" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="35" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="36" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="37" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="38" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="39" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="40" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="41" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="42" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="43" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="44" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="45" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="46" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="47" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="48" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="49" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="50" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="51" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="52" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="53" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="54" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="55" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="56" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="57" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="58" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="59" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="60" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="61" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="62" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="63" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="64" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="65" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="66" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="67" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="68" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="69" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="70" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="71" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="72" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="73" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="74" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="75" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="76" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="77" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="78" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="79" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="80" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="81" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="82" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="83" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="84" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="85" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="86" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="87" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="88" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="89" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="90" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="91" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="92" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="93" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="94" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="95" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="96" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="97" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="98" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="99" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="100" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="101" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="102" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="103" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="104" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="105" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="106" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="107" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="108" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="109" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="110" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="111" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="112" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="113" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="114" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="115" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="116" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="117" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="118" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="119" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="120" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="121" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="122" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="123" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="124" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="125" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="126" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="127" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="128" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="129" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="130" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="131" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="132" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -654,7 +1093,7 @@
     <ext cx="4114800" cy="2743200"/>
     <pic>
       <nvPicPr>
-        <cNvPr descr="Picture" id="1" name="Image 1"/>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
@@ -681,10 +1120,40 @@
       <row>4</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="3705225" cy="2943225"/>
+    <ext cx="3676650" cy="2943225"/>
     <pic>
       <nvPicPr>
-        <cNvPr descr="Picture" id="1" name="Image 1"/>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="3676650" cy="2943225"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
@@ -999,11 +1468,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="2" min="2" width="15"/>
-    <col customWidth="1" max="3" min="3" width="15"/>
-    <col customWidth="1" max="4" min="4" width="15"/>
-    <col customWidth="1" max="5" min="5" width="15"/>
-    <col customWidth="1" max="6" min="6" width="15"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1027,12 +1496,12 @@
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>1 Year Change</t>
+          <t>5 Years Ago Curve</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>5 Years Ago Curve</t>
+          <t>1 Year Change</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
@@ -1054,10 +1523,10 @@
         <v>1.63</v>
       </c>
       <c r="D4" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E4" s="3" t="n">
         <v>0.8000000000000003</v>
-      </c>
-      <c r="E4" s="3" t="n">
-        <v>0.03</v>
       </c>
       <c r="F4" s="4" t="n">
         <v>2.4</v>
@@ -1076,10 +1545,10 @@
         <v>1.73</v>
       </c>
       <c r="D5" s="5" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E5" s="3" t="n">
         <v>0.6699999999999999</v>
-      </c>
-      <c r="E5" s="3" t="n">
-        <v>0.05</v>
       </c>
       <c r="F5" s="6" t="n">
         <v>2.35</v>
@@ -1098,10 +1567,10 @@
         <v>1.93</v>
       </c>
       <c r="D6" s="7" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E6" s="3" t="n">
         <v>0.51</v>
-      </c>
-      <c r="E6" s="3" t="n">
-        <v>0.07000000000000001</v>
       </c>
       <c r="F6" s="8" t="n">
         <v>2.37</v>
@@ -1120,10 +1589,10 @@
         <v>2.09</v>
       </c>
       <c r="D7" s="9" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E7" s="3" t="n">
         <v>0.3100000000000001</v>
-      </c>
-      <c r="E7" s="3" t="n">
-        <v>0.13</v>
       </c>
       <c r="F7" s="10" t="n">
         <v>2.27</v>
@@ -1142,10 +1611,10 @@
         <v>2.27</v>
       </c>
       <c r="D8" s="11" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="E8" s="3" t="n">
         <v>0</v>
-      </c>
-      <c r="E8" s="3" t="n">
-        <v>0.44</v>
       </c>
       <c r="F8" s="12" t="n">
         <v>1.83</v>
@@ -1164,10 +1633,10 @@
         <v>2.39</v>
       </c>
       <c r="D9" s="13" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E9" s="3" t="n">
         <v>-0.1800000000000002</v>
-      </c>
-      <c r="E9" s="3" t="n">
-        <v>0.9</v>
       </c>
       <c r="F9" s="14" t="n">
         <v>1.31</v>
@@ -1186,10 +1655,10 @@
         <v>2.56</v>
       </c>
       <c r="D10" s="15" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="E10" s="3" t="n">
         <v>-0.3300000000000001</v>
-      </c>
-      <c r="E10" s="3" t="n">
-        <v>1.73</v>
       </c>
       <c r="F10" s="16" t="n">
         <v>0.5</v>
@@ -1208,10 +1677,10 @@
         <v>2.68</v>
       </c>
       <c r="D11" s="17" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E11" s="3" t="n">
         <v>-0.3700000000000001</v>
-      </c>
-      <c r="E11" s="3" t="n">
-        <v>2.3</v>
       </c>
       <c r="F11" s="18" t="n">
         <v>0.01000000000000023</v>
@@ -1230,10 +1699,10 @@
         <v>2.74</v>
       </c>
       <c r="D12" s="15" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="E12" s="3" t="n">
         <v>-0.3300000000000001</v>
-      </c>
-      <c r="E12" s="3" t="n">
-        <v>2.73</v>
       </c>
       <c r="F12" s="19" t="n">
         <v>-0.3199999999999998</v>
@@ -1252,10 +1721,10 @@
         <v>2.85</v>
       </c>
       <c r="D13" s="20" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="E13" s="3" t="n">
         <v>-0.2200000000000002</v>
-      </c>
-      <c r="E13" s="3" t="n">
-        <v>3.31</v>
       </c>
       <c r="F13" s="21" t="n">
         <v>-0.6800000000000002</v>
@@ -1274,10 +1743,10 @@
         <v>2.97</v>
       </c>
       <c r="D14" s="22" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="E14" s="3" t="n">
         <v>-0.1600000000000001</v>
-      </c>
-      <c r="E14" s="3" t="n">
-        <v>3.56</v>
       </c>
       <c r="F14" s="23" t="n">
         <v>-0.75</v>
@@ -1287,7 +1756,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
@@ -1678,7 +2147,398 @@
     <mergeCell ref="A4:A24"/>
     <mergeCell ref="B3:F3"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A3:F24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="3">
+      <c r="B3" s="24" t="inlineStr">
+        <is>
+          <t>Quarter</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="25" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C5" s="90" t="n">
+        <v>0.006033338020027923</v>
+      </c>
+      <c r="D5" s="49" t="n">
+        <v>0.00921312807960506</v>
+      </c>
+      <c r="E5" s="74" t="n">
+        <v>0.009972225034077464</v>
+      </c>
+      <c r="F5" s="91" t="n">
+        <v>0.009594311369861108</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="n">
+        <v>2001</v>
+      </c>
+      <c r="C6" s="92" t="n">
+        <v>0.01592803537797316</v>
+      </c>
+      <c r="D6" s="93" t="n">
+        <v>0.007603810050276438</v>
+      </c>
+      <c r="E6" s="94" t="n">
+        <v>0.01324380748782161</v>
+      </c>
+      <c r="F6" s="33" t="n">
+        <v>0.01641334156705243</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="n">
+        <v>2002</v>
+      </c>
+      <c r="C7" s="95" t="n">
+        <v>0.008111267175917813</v>
+      </c>
+      <c r="D7" s="64" t="n">
+        <v>0.0107999109881407</v>
+      </c>
+      <c r="E7" s="96" t="n">
+        <v>0.01306039788878621</v>
+      </c>
+      <c r="F7" s="97" t="n">
+        <v>0.008589170605372232</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="n">
+        <v>2003</v>
+      </c>
+      <c r="C8" s="98" t="n">
+        <v>0.0006287186625824059</v>
+      </c>
+      <c r="D8" s="99" t="n">
+        <v>0.01660659635627115</v>
+      </c>
+      <c r="E8" s="100" t="n">
+        <v>0.004439353373058008</v>
+      </c>
+      <c r="F8" s="43" t="n">
+        <v>0.02610822617077613</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="n">
+        <v>2004</v>
+      </c>
+      <c r="C9" s="101" t="n">
+        <v>0.006957716464966346</v>
+      </c>
+      <c r="D9" s="71" t="n">
+        <v>0.01464758575599179</v>
+      </c>
+      <c r="E9" s="102" t="n">
+        <v>0.03322078392183414</v>
+      </c>
+      <c r="F9" s="103" t="n">
+        <v>0.01122337342251112</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="n">
+        <v>2005</v>
+      </c>
+      <c r="C10" s="104" t="n">
+        <v>0.01554884259096712</v>
+      </c>
+      <c r="D10" s="105" t="n">
+        <v>0.02874562583050588</v>
+      </c>
+      <c r="E10" s="106" t="n">
+        <v>0.003765665977174093</v>
+      </c>
+      <c r="F10" s="107" t="n">
+        <v>0.02626163153547245</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="n">
+        <v>2006</v>
+      </c>
+      <c r="C11" s="108" t="n">
+        <v>0.007687996876960534</v>
+      </c>
+      <c r="D11" s="109" t="n">
+        <v>-0.0002806199361411466</v>
+      </c>
+      <c r="E11" s="110" t="n">
+        <v>0.003239436139509166</v>
+      </c>
+      <c r="F11" s="111" t="n">
+        <v>0.008768133789106569</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="n">
+        <v>2007</v>
+      </c>
+      <c r="C12" s="112" t="n">
+        <v>-0.006959085753479588</v>
+      </c>
+      <c r="D12" s="113" t="n">
+        <v>-0.01007078667135319</v>
+      </c>
+      <c r="E12" s="114" t="n">
+        <v>-0.01746086183290818</v>
+      </c>
+      <c r="F12" s="115" t="n">
+        <v>-0.01681744624239878</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="n">
+        <v>2008</v>
+      </c>
+      <c r="C13" s="116" t="n">
+        <v>-0.01661110726161474</v>
+      </c>
+      <c r="D13" s="117" t="n">
+        <v>-0.04331228685958366</v>
+      </c>
+      <c r="E13" s="118" t="n">
+        <v>-0.03777517691475873</v>
+      </c>
+      <c r="F13" s="46" t="n">
+        <v>0.02577683161632183</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="n">
+        <v>2009</v>
+      </c>
+      <c r="C14" s="119" t="n">
+        <v>0.002195408654469988</v>
+      </c>
+      <c r="D14" s="120" t="n">
+        <v>-0.03681578068423552</v>
+      </c>
+      <c r="E14" s="121" t="n">
+        <v>-0.03113595049664719</v>
+      </c>
+      <c r="F14" s="122" t="n">
+        <v>-0.01437848225118554</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="n">
+        <v>2010</v>
+      </c>
+      <c r="C15" s="69" t="n">
+        <v>-0.01203800370813002</v>
+      </c>
+      <c r="D15" s="54" t="n">
+        <v>-0.008306925770281914</v>
+      </c>
+      <c r="E15" s="100" t="n">
+        <v>0.004550840753874574</v>
+      </c>
+      <c r="F15" s="123" t="n">
+        <v>-0.01714047856275025</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="n">
+        <v>2011</v>
+      </c>
+      <c r="C16" s="124" t="n">
+        <v>-0.03880892350906329</v>
+      </c>
+      <c r="D16" s="125" t="n">
+        <v>-0.02510424201549688</v>
+      </c>
+      <c r="E16" s="126" t="n">
+        <v>-0.0006460762787989793</v>
+      </c>
+      <c r="F16" s="127" t="n">
+        <v>0.001654879540275767</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="n">
+        <v>2012</v>
+      </c>
+      <c r="C17" s="114" t="n">
+        <v>-0.01745424421171826</v>
+      </c>
+      <c r="D17" s="128" t="n">
+        <v>-0.002989271331031107</v>
+      </c>
+      <c r="E17" s="129" t="n">
+        <v>0.001994565482674959</v>
+      </c>
+      <c r="F17" s="130" t="n">
+        <v>0.00708805122486722</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="n">
+        <v>2013</v>
+      </c>
+      <c r="C18" s="98" t="n">
+        <v>0.0006158256118822258</v>
+      </c>
+      <c r="D18" s="131" t="n">
+        <v>0.01486069724867756</v>
+      </c>
+      <c r="E18" s="64" t="n">
+        <v>0.01074303432977675</v>
+      </c>
+      <c r="F18" s="132" t="n">
+        <v>0.003119292654079953</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="n">
+        <v>2014</v>
+      </c>
+      <c r="C19" s="132" t="n">
+        <v>0.00320825878502351</v>
+      </c>
+      <c r="D19" s="37" t="n">
+        <v>0.01392079018597436</v>
+      </c>
+      <c r="E19" s="133" t="n">
+        <v>0.0133097029192395</v>
+      </c>
+      <c r="F19" s="134" t="n">
+        <v>0.01358206262719497</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="n">
+        <v>2015</v>
+      </c>
+      <c r="C20" s="103" t="n">
+        <v>0.01132623491085982</v>
+      </c>
+      <c r="D20" s="74" t="n">
+        <v>0.01001320200113698</v>
+      </c>
+      <c r="E20" s="92" t="n">
+        <v>0.01592764360817767</v>
+      </c>
+      <c r="F20" s="108" t="n">
+        <v>0.007689278962371038</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C21" s="67" t="n">
+        <v>0.00819920827279419</v>
+      </c>
+      <c r="D21" s="135" t="n">
+        <v>0.01015334047327232</v>
+      </c>
+      <c r="E21" s="136" t="n">
+        <v>0.01395527637305749</v>
+      </c>
+      <c r="F21" s="137" t="n">
+        <v>0.002266353222358353</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C22" s="100" t="n">
+        <v>0.004503598913540463</v>
+      </c>
+      <c r="D22" s="138" t="n">
+        <v>0.02259690835594785</v>
+      </c>
+      <c r="E22" s="93" t="n">
+        <v>0.007548854283155215</v>
+      </c>
+      <c r="F22" s="106" t="n">
+        <v>0.003891671253645645</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C23" s="58" t="n">
+        <v>0.008412945029767194</v>
+      </c>
+      <c r="D23" s="139" t="n">
+        <v>0.01518764422635011</v>
+      </c>
+      <c r="E23" s="140" t="n">
+        <v>0.0105501937757837</v>
+      </c>
+      <c r="F23" s="141" t="n">
+        <v>0.004383265744325682</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C24" s="142" t="n">
+        <v>0.005242962593474232</v>
+      </c>
+      <c r="D24" s="89" t="n">
+        <v/>
+      </c>
+      <c r="E24" s="89" t="n">
+        <v/>
+      </c>
+      <c r="F24" s="89" t="n">
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A4:A24"/>
+    <mergeCell ref="B3:F3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>